--- a/Test_cases.xlsx
+++ b/Test_cases.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshan\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sliit-IT\IT23817630\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6804877-50A6-4B84-B753-FB0A4608BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EEA315-8D8E-4C19-9BA1-19A2BFCB528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Test cases" sheetId="1" r:id="rId1"/>
-    <sheet name="How to fill columns A and C" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="309">
   <si>
     <t>TC ID</t>
   </si>
@@ -304,294 +303,6 @@
       </rPr>
       <t>Simple sentence</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Ø</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Test case ID conventions:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Positive functional test cases should begin with “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pos_Fun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Negative functional test cases should begin with “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Neg_Fun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Positive UI test cases should begin with “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pos_UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Negative UI test cases should begin with “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Neg_UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">”. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ø</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Input length types:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>S (≤ 30 characters)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>M (31–299 characters)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>L (≥ 300 characters)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: </t>
   </si>
   <si>
     <t>Future tense plural</t>
@@ -817,12 +528,6 @@
     <t>මම drive කරන ගමන් ඉන්නේ , phone calls answer බෑ.</t>
   </si>
   <si>
-    <t>mama oyata mage pen drive eka dhennam. ekee thiyena zip folder eka oyage laptop ekata copy karagena eka unzip karalaa setup eka install kara ganna.</t>
-  </si>
-  <si>
-    <t>මම ඔයට mage pen drive එක දෙන්නම්. එකේ තියෙන zip folder එක ඔයගෙ laptop එකට copy කරගෙන එක unzip කරලා setup එක install කර ගන්න.</t>
-  </si>
-  <si>
     <t>oya gedhara yana gaman , mage bike eka kavidhu laage gedhara aethi. eka aragena gihin serves ekata dhagena yanna puluvan nedha? ehema unoth mata gedhara yana gaman bike eka aragena yanna puluvan</t>
   </si>
   <si>
@@ -2297,18 +2002,6 @@
     <t>Neg_Fun_0003</t>
   </si>
   <si>
-    <t xml:space="preserve">oyaa gedhara yanna???!!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ඔයා ගෙදර යන්න???!!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ඔයා ගෙදර යන්න
-</t>
-  </si>
-  <si>
     <t>Neg_Fun_0004</t>
   </si>
   <si>
@@ -2322,15 +2015,6 @@
   </si>
   <si>
     <t>Neg_Fun_0005</t>
-  </si>
-  <si>
-    <t>හවසට         එහෙනම්          මම          එන්නද?</t>
-  </si>
-  <si>
-    <t>havasata         ehenam          mama          ennadha?</t>
-  </si>
-  <si>
-    <t>හවසට එහෙනම් මම එන්නද</t>
   </si>
   <si>
     <t>Neg_Fun_0006</t>
@@ -2568,52 +2252,10 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> System preserves excessive punctuation instead of normalizing it</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Sentence intent is clear, but formatting is incorrect.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>   Punctuation / numbers</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>  Imperative (command)</t>
-    </r>
-  </si>
-  <si>
     <t>Uppercase English phrase handling</t>
   </si>
   <si>
@@ -2676,31 +2318,268 @@
     <t>Multiple excessive spaces</t>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> System does not normalize excessive spaces.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Output preserves irregular spacing</t>
+    <t>Shortened words in interrogative</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Shortened words such as “dn” and “kohomd” are not expanded</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Mixed-language output reduces clarity.</t>
+    </r>
+  </si>
+  <si>
+    <t>English connector within Sinhala sentence</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> English connector “or” is not converted to Sinhala.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Output remains partially untranslated.</t>
+    </r>
+  </si>
+  <si>
+    <t>Unit abbreviation handling</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Measurement unit “2L” is not converted to Sinhala form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Sentence meaning is preserved, but formatting is inconsistent.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>  Simple sentence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> M (31–299 characters)</t>
+    </r>
+  </si>
+  <si>
+    <t>Brand name distortion</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Brand name “PickMe” is partially distorted in Sinhala output.d.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Causes loss of brand readability</t>
+    </r>
+  </si>
+  <si>
+    <t>Mixed casing with proper names</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Improper casing leads to incorrect Sinhala characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Proper name handling is inconsistent.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   ames / places / common English words</t>
+    </r>
+  </si>
+  <si>
+    <t>Pos_UI_0001</t>
+  </si>
+  <si>
+    <t>Sinhala output is generated without pressing any convert button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eka hari lassana vehicle ekak </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   Usability flow (real-time conversion)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   Real-time output update behavior</t>
+    </r>
+  </si>
+  <si>
+    <t>The Sinhala output is generated live while you type into the Singlish input field. There is no need for you to perform any action other than to type into the input field itself.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>There is no separate convert or submit action; the Sinhala output is displayed in real-time as the user types into the input field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This confirms an accurate interaction design of the user interface because it allows for real-time printing of the Sinhala translation as the user types into the input field.</t>
     </r>
   </si>
   <si>
@@ -2714,286 +2593,77 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Sentence structure is affected.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   Formatting (spaces / line breaks / paragraph)</t>
-    </r>
-  </si>
-  <si>
-    <t>Shortened words in interrogative</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Shortened words such as “dn” and “kohomd” are not expanded</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Mixed-language output reduces clarity.</t>
-    </r>
-  </si>
-  <si>
-    <t>English connector within Sinhala sentence</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> English connector “or” is not converted to Sinhala.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Output remains partially untranslated.</t>
-    </r>
-  </si>
-  <si>
-    <t>Unit abbreviation handling</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Measurement unit “2L” is not converted to Sinhala form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Sentence meaning is preserved, but formatting is inconsistent.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>  Simple sentence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> M (31–299 characters)</t>
-    </r>
-  </si>
-  <si>
-    <t>Brand name distortion</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Brand name “PickMe” is partially distorted in Sinhala output.d.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Causes loss of brand readability</t>
-    </r>
-  </si>
-  <si>
-    <t>Mixed casing with proper names</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Improper casing leads to incorrect Sinhala characters.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Proper name handling is inconsistent.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   ames / places / common English words</t>
-    </r>
-  </si>
-  <si>
-    <t>Pos_UI_0001</t>
-  </si>
-  <si>
-    <t>Sinhala output is generated without pressing any convert button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eka hari lassana vehicle ekak </t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   Usability flow (real-time conversion)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   Real-time output update behavior</t>
-    </r>
-  </si>
-  <si>
-    <t>The Sinhala output is generated live while you type into the Singlish input field. There is no need for you to perform any action other than to type into the input field itself.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>There is no separate convert or submit action; the Sinhala output is displayed in real-time as the user types into the input field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>This confirms an accurate interaction design of the user interface because it allows for real-time printing of the Sinhala translation as the user types into the input field.</t>
+      <t>Usability is improved because the system reduces the number of user actions required by eliminating the need for additional user actions.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Sinhala output is generated through the use of the automatic typing feature found within the Singlish input field, without the need for clicking the convert or submit buttons.</t>
+  </si>
+  <si>
+    <t>anidhdhata pansal yamu</t>
+  </si>
+  <si>
+    <t>අනිද්දට පන්සල් යමු</t>
+  </si>
+  <si>
+    <t>අපි ඊලග සතියෙ මාතර යමු.</t>
+  </si>
+  <si>
+    <t>api iilaga sathiye maathara yamu.</t>
+  </si>
+  <si>
+    <t>mama oyaata mage pen drive eka dhennam. ekee thiyena zip folder eka oyage laptop ekata copy karagena eka unzip karalaa setup eka install kara ganna.</t>
+  </si>
+  <si>
+    <t>මම ඔයාට mage pen drive එක දෙන්නම්. එකේ තියෙන zip folder එක ඔයගෙ laptop එකට copy කරගෙන එක unzip කරලා setup එක install කර ගන්න.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyaage Gedhara thiyenne koheedha
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඔයාගෙ ඟෙදර තියෙන්නෙ කොහේද
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඔයාගෙ ගෙදර තියෙන්නෙ කොහේද
+</t>
+  </si>
+  <si>
+    <t>havasata /mama ennam.</t>
+  </si>
+  <si>
+    <t>හවසට /මම එන්නම්.</t>
+  </si>
+  <si>
+    <t>හවසට මම එන්නම්.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The system fails to ignore or normalize special characters ( / ) included in the Singlish input.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Instead of removing the symbol, the translator preserves it in the Sinhala output, which affects grammatical correctness and readability.</t>
     </r>
   </si>
   <si>
@@ -3007,30 +2677,178 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Usability is improved because the system reduces the number of user actions required by eliminating the need for additional user actions.</t>
-    </r>
-  </si>
-  <si>
-    <t>The Sinhala output is generated through the use of the automatic typing feature found within the Singlish input field, without the need for clicking the convert or submit buttons.</t>
-  </si>
-  <si>
-    <t>anidhdhata pansal yamu</t>
-  </si>
-  <si>
-    <t>අනිද්දට පන්සල් යමු</t>
-  </si>
-  <si>
-    <t>අපි ඊලග සතියෙ මාතර යමු.</t>
-  </si>
-  <si>
-    <t>api iilaga sathiye maathara yamu.</t>
+      <t xml:space="preserve"> Sentence meaning is mostly retained, but formatting accuracy is incorrect.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   Special character handling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> Input normalization robustness</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> S (≤30 characters) input length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   Real-world user typing mistakes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   S (≤30 characters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    S (≤30 characters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The system incorrectly maps the Singlish word “Gedhara” to an invalid Sinhala character “ඟ” (ඟෙදර) instead of the correct “ගෙදර”.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> This indicates a character-level transliteration error, possibly caused by mixed-case input or phonetic ambiguity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Although the sentence intent is clear, the output contains a linguistically incorrect Sinhala letter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   Sinhala phonetic accuracy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>  Mixed-case input handling</t>
+    </r>
+  </si>
+  <si>
+    <t>IT23817630</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3077,19 +2895,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -3114,6 +2920,12 @@
       <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3151,7 +2963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3162,24 +2974,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -3188,12 +2997,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3487,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110:F113"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3506,40 +3309,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3571,216 +3374,216 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>103</v>
+      <c r="B10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8" t="s">
-        <v>108</v>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
         <v>22</v>
@@ -3788,43 +3591,43 @@
     </row>
     <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>25</v>
@@ -3832,14 +3635,14 @@
     </row>
     <row r="20" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>21</v>
@@ -3847,143 +3650,143 @@
     </row>
     <row r="21" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>129</v>
+      <c r="H26" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>21</v>
@@ -3991,71 +3794,71 @@
     </row>
     <row r="29" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>21</v>
@@ -4063,56 +3866,56 @@
     </row>
     <row r="33" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>25</v>
@@ -4120,14 +3923,14 @@
     </row>
     <row r="36" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>21</v>
@@ -4135,357 +3938,357 @@
     </row>
     <row r="37" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="3"/>
       <c r="I37" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="3"/>
       <c r="I41" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="3"/>
       <c r="I45" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="3"/>
       <c r="I49" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="3"/>
       <c r="I53" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
         <v>21</v>
@@ -4493,421 +4296,421 @@
     </row>
     <row r="57" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="3"/>
       <c r="I57" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="3"/>
       <c r="I61" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="10"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="10"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="3"/>
       <c r="I65" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="G66" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="3"/>
       <c r="I69" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="10"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="3"/>
       <c r="I73" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="3"/>
       <c r="I77" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="10"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
         <v>21</v>
@@ -4915,283 +4718,283 @@
     </row>
     <row r="81" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="3"/>
       <c r="I81" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="10"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="10"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="10"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="3"/>
       <c r="I85" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="10"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="10"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="3"/>
       <c r="I89" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="10"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="10"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="10"/>
+      <c r="G93" s="8"/>
       <c r="H93" s="3"/>
       <c r="I93" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G94" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="10"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
         <v>21</v>
@@ -5199,871 +5002,1097 @@
     </row>
     <row r="97" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="10"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="3"/>
       <c r="I97" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>103</v>
+        <v>71</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="10"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="10"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="10"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="3"/>
       <c r="I101" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="10"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="10"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="10"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="3"/>
       <c r="I105" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C106" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="10"/>
+      <c r="G107" s="8"/>
       <c r="H107" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="10"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="10"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="3"/>
       <c r="I109" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>214</v>
+        <v>288</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="10"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="8"/>
       <c r="H111" s="2" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="2"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="I112" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="10"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="3"/>
       <c r="I113" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>15</v>
+        <v>208</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>11</v>
+        <v>210</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="10"/>
+      <c r="G115" s="8"/>
       <c r="H115" s="2" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="10"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="2" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="10"/>
+      <c r="G117" s="8"/>
       <c r="H117" s="3"/>
       <c r="I117" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>15</v>
+        <v>212</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>214</v>
+        <v>292</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="10"/>
+      <c r="G119" s="8"/>
       <c r="H119" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="10"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="2" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>165</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="10"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="3"/>
       <c r="I121" s="2" t="s">
-        <v>127</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>15</v>
+        <v>213</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="10"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="2" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
+      <c r="G124" s="8"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="10"/>
+      <c r="G125" s="8"/>
       <c r="H125" s="3"/>
       <c r="I125" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C126" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="10"/>
+      <c r="G127" s="8"/>
       <c r="H127" s="2" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="10"/>
+      <c r="G128" s="8"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
+      <c r="G129" s="8"/>
       <c r="H129" s="3"/>
       <c r="I129" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C130" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>214</v>
+        <v>223</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="10"/>
+      <c r="G131" s="8"/>
       <c r="H131" s="2" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="10"/>
+      <c r="G132" s="8"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="10"/>
+      <c r="G133" s="8"/>
       <c r="H133" s="3"/>
       <c r="I133" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>15</v>
+        <v>225</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>214</v>
+        <v>227</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="10"/>
+      <c r="G135" s="8"/>
       <c r="H135" s="2" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="10"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="10"/>
+      <c r="G137" s="8"/>
       <c r="H137" s="3"/>
       <c r="I137" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>15</v>
+        <v>226</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="10"/>
+      <c r="G139" s="8"/>
       <c r="H139" s="2" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="10"/>
+      <c r="G140" s="8"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="10"/>
+      <c r="G141" s="8"/>
       <c r="H141" s="3"/>
       <c r="I141" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C142" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G142" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="10"/>
+      <c r="G143" s="8"/>
       <c r="H143" s="2" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="10"/>
+      <c r="G144" s="8"/>
       <c r="H144" s="2" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="10"/>
+      <c r="G145" s="8"/>
       <c r="H145" s="3"/>
       <c r="I145" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G14:G17"/>
@@ -6088,299 +6117,9 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="G142:G145"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC46D7C-9CF9-4B40-BC6C-102302ABB52B}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="97.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
